--- a/biology/Médecine/Hard_Rock_Medical_(série_télévisée)/Hard_Rock_Medical_(série_télévisée).xlsx
+++ b/biology/Médecine/Hard_Rock_Medical_(série_télévisée)/Hard_Rock_Medical_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hard_Rock_Medical_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hard_Rock_Medical_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hard Rock Medical est une série médicale canadienne diffusée sur TVOntario depuis 2013. 
-La série est vaguement basée sur l'Université de l'École de médecine du Nord de l'Ontario[1]. 
+La série est vaguement basée sur l'Université de l'École de médecine du Nord de l'Ontario. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hard_Rock_Medical_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hard_Rock_Medical_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série suit les nouveaux étudiants de l'école de médecine Boréal à Sudbury. Au cours d'une formation de 4 ans, ces derniers vont apprendre à exercer une médecine qui répond aux besoins de cette région atypique du Nord de l'Ontario.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hard_Rock_Medical_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Hard_Rock_Medical_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mark Coles Smith - Gary Frazier
 Tamara Duarte - Gina Russo
